--- a/Worklog_BMeyer_Nov2020.xlsx
+++ b/Worklog_BMeyer_Nov2020.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768C42F-DB5D-8A4D-A666-A34A4148CFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -46,12 +47,15 @@
   </si>
   <si>
     <t>Some data organization for overall dataset 2000-2020 exists in "Baseline_ZnCuData_2000-2020_FINALREPORT.xlsx".  Looks like this has been hand-collated from various sources in the server.  Better to just use original documents ?!  Or is the cleaner version of all available KWF WQ data?</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,22 +377,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="3" width="49.6640625" customWidth="1"/>
     <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -400,8 +405,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44158</v>
       </c>
@@ -414,8 +422,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44158</v>
       </c>
@@ -424,6 +435,14 @@
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>44159</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Worklog_BMeyer_Nov2020.xlsx
+++ b/Worklog_BMeyer_Nov2020.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768C42F-DB5D-8A4D-A666-A34A4148CFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12636"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,13 +48,13 @@
     <t>Some data organization for overall dataset 2000-2020 exists in "Baseline_ZnCuData_2000-2020_FINALREPORT.xlsx".  Looks like this has been hand-collated from various sources in the server.  Better to just use original documents ?!  Or is the cleaner version of all available KWF WQ data?</t>
   </si>
   <si>
-    <t>Hours</t>
+    <t>Edits in progress.  To do: Finish repoprt text, re-work tables 2 and 3 to segregate Cu and Zn values,  Find out why metals values missing from MS sites plot in R script.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,22 +376,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="3" width="49.6640625" customWidth="1"/>
     <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -405,11 +404,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44158</v>
       </c>
@@ -422,11 +418,8 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44158</v>
       </c>
@@ -437,12 +430,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44159</v>
       </c>
-      <c r="E4">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Worklog_BMeyer_Nov2020.xlsx
+++ b/Worklog_BMeyer_Nov2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Edits in progress.  To do: Finish repoprt text, re-work tables 2 and 3 to segregate Cu and Zn values,  Find out why metals values missing from MS sites plot in R script.</t>
+  </si>
+  <si>
+    <t>fix "lower" and "upper" sites terminology in R script</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,6 +445,9 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
